--- a/Riskmanagement.xlsx
+++ b/Riskmanagement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i518078\OneDrive - SAP SE\DHBW\3_Semester\SE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i518078\OneDrive - SAP SE\DHBW\3_Semester\SE\Mood4Food_Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8102CA8F-C8D0-4D30-842A-FD1441A799F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B1D7D-4899-4E10-9B76-27A114B86C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{86032090-4A39-4213-9797-B476AFD9E388}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Risk</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Periodical Documentation Reviews</t>
+  </si>
+  <si>
+    <t>Shrinking motivation</t>
+  </si>
+  <si>
+    <t>Teammembers motiviation shrinks</t>
+  </si>
+  <si>
+    <t>See the task abstreact as a rational necessary task for completion</t>
   </si>
 </sst>
 </file>
@@ -187,7 +196,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -252,46 +341,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -306,7 +355,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5E82A0E-84A8-4847-A2AD-37E533725CCA}" name="Table1" displayName="Table1" ref="A1:G12" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5E82A0E-84A8-4847-A2AD-37E533725CCA}" name="Table1" displayName="Table1" ref="A1:G12" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:G12" xr:uid="{F8824764-008A-469B-ABCC-445A98E80DBE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -320,13 +369,13 @@
     <sortCondition descending="1" ref="G2"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{53D09BF3-241C-4EB5-8B2A-D18262BAD58D}" name="Risk" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{65F8774E-F19D-45D7-9862-75FEB045CE0E}" name="Description" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{053561CA-9D87-4853-857C-F8A6581EB1DC}" name="Prob of Occur" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{C4F35DF5-86BD-4150-AC81-3B2BF5BEF235}" name="Damage" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{6C6A23D8-A52F-4858-8EAE-3ED36D960D3D}" name="Mitigation strategy" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{92E88CE1-941D-4903-98BE-CA1C4B79A40C}" name="Person in charge" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{89F1DD6F-F79F-41F8-9856-7C45AAA206F8}" name="Risk factor" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{53D09BF3-241C-4EB5-8B2A-D18262BAD58D}" name="Risk" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{65F8774E-F19D-45D7-9862-75FEB045CE0E}" name="Description" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{053561CA-9D87-4853-857C-F8A6581EB1DC}" name="Prob of Occur" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{C4F35DF5-86BD-4150-AC81-3B2BF5BEF235}" name="Damage" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{6C6A23D8-A52F-4858-8EAE-3ED36D960D3D}" name="Mitigation strategy" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{92E88CE1-941D-4903-98BE-CA1C4B79A40C}" name="Person in charge" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{89F1DD6F-F79F-41F8-9856-7C45AAA206F8}" name="Risk factor" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>C2*D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -634,7 +683,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,52 +864,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <f>C8*D8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
+      <c r="G9" s="1">
+        <f>C9*D9</f>
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,22 +958,42 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition descending="1" ref="G2"/>
   </sortState>
-  <conditionalFormatting sqref="G2:G12">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
+  <conditionalFormatting sqref="G11:G12 G2:G9">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G11:G1048576 G1:G9">
+    <cfRule type="cellIs" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+      <formula>25</formula>
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -938,21 +1007,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001258AE383E0A54EBA346C532F9EF553" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="393edad69c4bda07320420d9de201ad9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e064e622-39c0-4867-8d53-589003cebcd9" xmlns:ns4="5351b07a-d384-46a4-82f9-5d8a3f1dbe27" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a37557cfc7bfdf9bf399f3a60c42474" ns3:_="" ns4:_="">
     <xsd:import namespace="e064e622-39c0-4867-8d53-589003cebcd9"/>
@@ -1175,32 +1229,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09A19667-7E19-40AC-9156-85D0C76F82C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5351b07a-d384-46a4-82f9-5d8a3f1dbe27"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e064e622-39c0-4867-8d53-589003cebcd9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7700321C-39A4-420D-80F8-2BADE2730393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{698DBB0E-C232-4FCF-8AEB-3D1E7E19766F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1217,4 +1261,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7700321C-39A4-420D-80F8-2BADE2730393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09A19667-7E19-40AC-9156-85D0C76F82C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5351b07a-d384-46a4-82f9-5d8a3f1dbe27"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e064e622-39c0-4867-8d53-589003cebcd9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>